--- a/DOCUMENTAÇÃO/Backlog_KnowFootball.xlsx
+++ b/DOCUMENTAÇÃO/Backlog_KnowFootball.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04395b400f7f60cb/Desktop/Projeto knowfootball/Projeto_Matheus_Valle_know-football/DOCUMENTAÇÃO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B7EDD68-DCB0-4DD0-A779-2F4742B46CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{4B7EDD68-DCB0-4DD0-A779-2F4742B46CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70EC4AE-DC78-4587-B2B9-F370A62E11FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CE54B8C-27E7-43A3-A284-970DD8A8DBF5}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>Fazer as validações de cadastro no front-end do site</t>
   </si>
   <si>
-    <t>Desenvolver a tela inicial do usuario do site</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desenvolver o script do banco de dados </t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Configurar a maquina virtual para o projeto</t>
   </si>
   <si>
-    <t>Conectar o banco de dados a maquina virtual</t>
-  </si>
-  <si>
     <t xml:space="preserve">Essencial </t>
   </si>
   <si>
@@ -300,6 +294,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Conectar o banco de dados com a maquina virtual</t>
+  </si>
+  <si>
+    <t>Desenvolver as telas do usuario do site</t>
   </si>
 </sst>
 </file>
@@ -409,6 +409,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,9 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2642,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038C9E5A-C559-4D5A-AF1D-688BEFA4C9AC}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2659,16 +2659,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2697,7 +2697,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2721,14 +2721,14 @@
       <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="P3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2752,14 +2752,14 @@
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>31</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="6">
         <v>258</v>
@@ -2792,7 +2792,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="6">
         <v>96</v>
@@ -2825,7 +2825,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="6">
         <v>92</v>
@@ -2858,7 +2858,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="6">
         <v>70</v>
@@ -2891,7 +2891,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2939,18 +2939,18 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
@@ -2963,14 +2963,14 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
@@ -2989,7 +2989,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>29</v>
@@ -3013,7 +3013,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
@@ -3033,11 +3033,11 @@
         <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3057,11 +3057,11 @@
         <v>2</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
@@ -3081,11 +3081,11 @@
         <v>2</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
@@ -3105,11 +3105,11 @@
         <v>2</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
@@ -3129,11 +3129,11 @@
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
@@ -3153,18 +3153,18 @@
         <v>3</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
@@ -3184,24 +3184,24 @@
         <v>3</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
@@ -3221,10 +3221,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="6">
         <v>258</v>
@@ -3240,7 +3240,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3260,10 +3260,10 @@
         <v>2</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="6">
         <v>96</v>
@@ -3279,12 +3279,12 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>23</v>
@@ -3299,10 +3299,10 @@
         <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q23" s="6">
         <v>92</v>
@@ -3314,12 +3314,12 @@
       <c r="T23" s="9"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>24</v>
@@ -3334,10 +3334,10 @@
         <v>2</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="6">
         <v>70</v>
@@ -3349,12 +3349,12 @@
       <c r="T24" s="9"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>24</v>
@@ -3369,24 +3369,24 @@
         <v>2</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>85</v>
+      <c r="A26" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
@@ -3395,16 +3395,16 @@
         <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>23</v>
@@ -3419,23 +3419,23 @@
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H2:H26" xr:uid="{038C9E5A-C559-4D5A-AF1D-688BEFA4C9AC}"/>
+  <autoFilter ref="H2:H27" xr:uid="{038C9E5A-C559-4D5A-AF1D-688BEFA4C9AC}"/>
   <mergeCells count="6">
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="P19:T19"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/DOCUMENTAÇÃO/Backlog_KnowFootball.xlsx
+++ b/DOCUMENTAÇÃO/Backlog_KnowFootball.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04395b400f7f60cb/Desktop/Projeto knowfootball/Projeto_Matheus_Valle_know-football/DOCUMENTAÇÃO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{4B7EDD68-DCB0-4DD0-A779-2F4742B46CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70EC4AE-DC78-4587-B2B9-F370A62E11FA}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4B7EDD68-DCB0-4DD0-A779-2F4742B46CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E432283-DCC9-43B4-AE44-4D6790D25968}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CE54B8C-27E7-43A3-A284-970DD8A8DBF5}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{5CE54B8C-27E7-43A3-A284-970DD8A8DBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -409,6 +409,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,9 +422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,42 +549,11 @@
           <c:cat>
             <c:strRef>
               <c:f>Planilha1!$P$5:$P$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TOTAL</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SP3A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SP3B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SP3C</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$Q$5:$Q$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -602,6 +571,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1783834815"/>
         <c:axId val="1783838175"/>
@@ -862,7 +832,7 @@
               <c:f>Planilha1!$R$21:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -871,9 +841,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,7 +883,7 @@
               <c:f>Planilha1!$S$21:$S$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>62</c:v>
                 </c:pt>
@@ -2323,6 +2290,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2640,9 +2611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038C9E5A-C559-4D5A-AF1D-688BEFA4C9AC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -2659,16 +2631,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2696,8 +2668,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2721,14 +2693,14 @@
       <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2758,8 +2730,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2791,8 +2763,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2824,8 +2796,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2857,8 +2829,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2890,8 +2862,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2914,8 +2886,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2938,8 +2910,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>81</v>
       </c>
@@ -2962,8 +2934,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2988,8 +2960,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -3012,8 +2984,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
@@ -3036,8 +3008,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3060,8 +3032,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
@@ -3084,8 +3056,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
@@ -3108,8 +3080,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
       <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
@@ -3132,8 +3104,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
@@ -3155,16 +3127,16 @@
       <c r="H19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
@@ -3201,7 +3173,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
@@ -3240,7 +3212,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3279,7 +3251,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
@@ -3313,8 +3285,8 @@
       <c r="S23" s="8"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
@@ -3349,7 +3321,7 @@
       <c r="T24" s="9"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
@@ -3373,7 +3345,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3399,7 +3371,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="6" t="s">
         <v>51</v>
       </c>
@@ -3428,7 +3400,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H2:H27" xr:uid="{038C9E5A-C559-4D5A-AF1D-688BEFA4C9AC}"/>
+  <autoFilter ref="H2:H27" xr:uid="{038C9E5A-C559-4D5A-AF1D-688BEFA4C9AC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="3C"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:H1"/>

--- a/DOCUMENTAÇÃO/Backlog_KnowFootball.xlsx
+++ b/DOCUMENTAÇÃO/Backlog_KnowFootball.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04395b400f7f60cb/Desktop/Projeto knowfootball/Projeto_Matheus_Valle_know-football/DOCUMENTAÇÃO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{4B7EDD68-DCB0-4DD0-A779-2F4742B46CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E432283-DCC9-43B4-AE44-4D6790D25968}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{4B7EDD68-DCB0-4DD0-A779-2F4742B46CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0025E8F2-BB56-4977-84B9-DE4F350CA595}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{5CE54B8C-27E7-43A3-A284-970DD8A8DBF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CE54B8C-27E7-43A3-A284-970DD8A8DBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -549,11 +549,42 @@
           <c:cat>
             <c:strRef>
               <c:f>Planilha1!$P$5:$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SP3A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SP3B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SP3C</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$Q$5:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -571,7 +602,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1783834815"/>
         <c:axId val="1783838175"/>
@@ -832,7 +862,7 @@
               <c:f>Planilha1!$R$21:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -841,6 +871,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,7 +916,7 @@
               <c:f>Planilha1!$S$21:$S$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>62</c:v>
                 </c:pt>
@@ -2611,10 +2644,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038C9E5A-C559-4D5A-AF1D-688BEFA4C9AC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -2668,7 +2700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>44</v>
       </c>
@@ -2699,7 +2731,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -2730,7 +2762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -2763,7 +2795,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -2796,7 +2828,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -2829,7 +2861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -2862,7 +2894,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -2886,7 +2918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
@@ -2910,7 +2942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>81</v>
@@ -2934,7 +2966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>49</v>
       </c>
@@ -2960,7 +2992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
@@ -2984,7 +3016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -3008,7 +3040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="4" t="s">
         <v>35</v>
@@ -3032,7 +3064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -3056,7 +3088,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>37</v>
@@ -3080,7 +3112,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="4" t="s">
         <v>38</v>
@@ -3104,7 +3136,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
         <v>39</v>
@@ -3135,7 +3167,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
         <v>40</v>
@@ -3285,7 +3317,7 @@
       <c r="S23" s="8"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="4" t="s">
         <v>47</v>
@@ -3400,13 +3432,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H2:H27" xr:uid="{038C9E5A-C559-4D5A-AF1D-688BEFA4C9AC}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="3C"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="H2:H27" xr:uid="{038C9E5A-C559-4D5A-AF1D-688BEFA4C9AC}"/>
   <mergeCells count="6">
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:H1"/>
